--- a/results/Trait variance partitioning results.xlsx
+++ b/results/Trait variance partitioning results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maud/Documents/Work/Research work/Postdoc BIBS local/Student projects/2020 Elena Giertzuch BSc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\AphidTraits\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8608FDFE-DD85-DA4D-899D-0DC7681F6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB4A1C-D32C-4E86-A21A-C06AE8C97E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14400" xr2:uid="{51AC1DB6-F14D-1E47-81EE-286F67F50D02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{51AC1DB6-F14D-1E47-81EE-286F67F50D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Df</t>
   </si>
@@ -73,20 +73,57 @@
     <t>Femur length</t>
   </si>
   <si>
-    <t>&lt;0.0001</t>
-  </si>
-  <si>
     <t>Tibia length</t>
+  </si>
+  <si>
+    <t>abdomen length</t>
+  </si>
+  <si>
+    <t>body length</t>
+  </si>
+  <si>
+    <t>body width</t>
+  </si>
+  <si>
+    <t>tarsus length</t>
+  </si>
+  <si>
+    <t>rostrum length</t>
+  </si>
+  <si>
+    <t>head width</t>
+  </si>
+  <si>
+    <t>0.0000e+00</t>
+  </si>
+  <si>
+    <t>ant3 length</t>
+  </si>
+  <si>
+    <t>head length</t>
+  </si>
+  <si>
+    <t>thorax width</t>
+  </si>
+  <si>
+    <t>rhinaria mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fstat </t>
+  </si>
+  <si>
+    <t>R2 model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,13 +139,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,14 +172,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,18 +501,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F34717-1F23-694D-8EA6-EFBAFCEAED6E}">
-  <dimension ref="A2:K9"/>
+  <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -478,37 +540,52 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>0.19414999999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>2.7735599999999999E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="10">
         <v>9.2088000000000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="10">
         <v>5.8343E-9</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="11">
         <v>0.20188</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="10">
+        <v>0.6492</v>
+      </c>
+      <c r="J3" s="10">
+        <v>6.4779999999999998</v>
+      </c>
+      <c r="K3" s="10">
+        <v>5.4190000000000002E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -530,8 +607,10 @@
       <c r="H4" s="3">
         <v>0.44735000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -548,41 +627,54 @@
       <c r="H5" s="3">
         <v>0.35077000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>0.38258999999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <v>5.4656000000000003E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="10">
         <v>6.4497</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="10">
         <v>2.1809000000000002E-6</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="11">
         <v>0.15437999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="10">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="J7" s="10">
+        <v>5.6390000000000002</v>
+      </c>
+      <c r="K7" s="10">
+        <v>3.5399999999999999E-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -604,8 +696,10 @@
       <c r="H8" s="3">
         <v>0.46266000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -622,8 +716,905 @@
       <c r="H9" s="3">
         <v>0.38296999999999998</v>
       </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2.3127</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.33039000000000002</v>
+      </c>
+      <c r="F11" s="12">
+        <v>18.701699999999999</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1.4921000000000001E-12</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.29058</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="J11" s="10">
+        <v>10.42</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.5792999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.14316999999999999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8.1043000000000003</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8.5015999999999992E-12</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.44972000000000001</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>117</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.0669</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.7670000000000002E-2</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="7">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1.3810899999999999</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.197298</v>
+      </c>
+      <c r="F15" s="10">
+        <v>23.637</v>
+      </c>
+      <c r="G15" s="10">
+        <v>8.1302000000000001E-20</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.30498999999999998</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="J15" s="10">
+        <v>13.27</v>
+      </c>
+      <c r="K15" s="10">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.1622499999999998</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.6489999999999997E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10.362</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.3299E-15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>118</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.98497000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8.3470000000000003E-3</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7">
+        <v>0.21751000000000001</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>7</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.23874999999999999</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3.4106999999999998E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>21.662500000000001</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.5999000000000001E-14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.29997000000000001</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="J19" s="10">
+        <v>12.14</v>
+      </c>
+      <c r="K19" s="10">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.37293999999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.4918000000000001E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9.4746000000000006</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4.0416999999999997E-14</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.46856999999999999</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>117</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.18421000000000001</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.5740000000000001E-3</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="7">
+        <v>0.23144999999999999</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>7</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.869E-3</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="F23" s="10">
+        <v>5.5575000000000001</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.6405E-5</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.16397</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="K23" s="10">
+        <v>4.5460000000000002E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.1485000000000003E-3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1.6594E-4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3.6519999999999999E-6</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.36396000000000001</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>112</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.3807999999999998E-3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4.8043000000000001E-5</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7">
+        <v>0.47206999999999999</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>7</v>
+      </c>
+      <c r="D27" s="10">
+        <v>4.9833999999999998E-3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>7.1192E-4</v>
+      </c>
+      <c r="F27" s="10">
+        <v>7.9855999999999998</v>
+      </c>
+      <c r="G27" s="10">
+        <v>7.0000000000000005E-8</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.23064999999999999</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="J27" s="10">
+        <v>3.98</v>
+      </c>
+      <c r="K27" s="10">
+        <v>2.6129999999999999E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>6.3699000000000004E-3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.5480000000000001E-4</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.8580999999999999</v>
+      </c>
+      <c r="G28" s="4">
+        <v>8.0847999999999996E-5</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.29482999999999998</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>115</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.0252300000000001E-2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8.9149999999999999E-5</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7">
+        <v>0.47452</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>7</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2.8413999999999998E-2</v>
+      </c>
+      <c r="E31" s="10">
+        <v>4.0591999999999998E-3</v>
+      </c>
+      <c r="F31" s="10">
+        <v>18.991599999999998</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.38247999999999999</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="J31" s="10">
+        <v>8.8059999999999992</v>
+      </c>
+      <c r="K31" s="10">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>21</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2.4289000000000002E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.1566E-3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5.4112999999999998</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.8133999999999999E-5</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.32694000000000001</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>101</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2.1586999999999999E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2.1369999999999999E-4</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7">
+        <v>0.29058</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>7</v>
+      </c>
+      <c r="D35" s="10">
+        <v>7.578E-2</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1.08261E-2</v>
+      </c>
+      <c r="F35" s="10">
+        <v>3.7770999999999999</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="H35" s="11">
+        <v>9.5860000000000001E-2</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="J35" s="10">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="K35" s="10">
+        <v>7.5349999999999996E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.38229000000000002</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.5291600000000001E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5.3350999999999997</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.48357</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>116</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.33248</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2.8662000000000002E-3</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7">
+        <v>0.42057</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>7</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2.4187E-2</v>
+      </c>
+      <c r="E39" s="10">
+        <v>3.4551999999999999E-3</v>
+      </c>
+      <c r="F39" s="10">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2.72E-5</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.18060999999999999</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="K39" s="10">
+        <v>2.9600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3.4303E-2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.3721E-3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.1101999999999999</v>
+      </c>
+      <c r="G40" s="4">
+        <v>4.1809000000000004E-3</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.25614999999999999</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>116</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7.5424000000000005E-2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>6.5019999999999998E-4</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7">
+        <v>0.56323000000000001</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9">
+        <v>7</v>
+      </c>
+      <c r="D43" s="10">
+        <v>6.9474999999999995E-2</v>
+      </c>
+      <c r="E43" s="10">
+        <v>9.9249999999999998E-3</v>
+      </c>
+      <c r="F43" s="10">
+        <v>14.2721</v>
+      </c>
+      <c r="G43" s="10">
+        <v>2.6620000000000001E-9</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.27611999999999998</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="J43" s="10">
+        <v>7.65</v>
+      </c>
+      <c r="K43" s="10">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.100772</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4.0308999999999996E-3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>5.7964000000000002</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2.1362999999999999E-7</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.40050999999999998</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>117</v>
+      </c>
+      <c r="D45" s="4">
+        <v>8.1363000000000005E-2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>6.9539999999999999E-4</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7">
+        <v>0.32336999999999999</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>7</v>
+      </c>
+      <c r="D47" s="10">
+        <v>661.03</v>
+      </c>
+      <c r="E47" s="10">
+        <v>94.433000000000007</v>
+      </c>
+      <c r="F47" s="10">
+        <v>7.6893000000000002</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1.3899999999999999E-7</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0.22719</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J47" s="10">
+        <v>3.8730000000000002</v>
+      </c>
+      <c r="K47" s="10">
+        <v>5.482E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48" s="4">
+        <v>860.86</v>
+      </c>
+      <c r="E48" s="4">
+        <v>34.433999999999997</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.8037999999999998</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1.1271E-4</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.29586000000000001</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>113</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1387.78</v>
+      </c>
+      <c r="E49" s="2">
+        <v>12.281000000000001</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3">
+        <v>0.47694999999999999</v>
+      </c>
+      <c r="K49" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/Trait variance partitioning results.xlsx
+++ b/results/Trait variance partitioning results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\AphidTraits\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB4A1C-D32C-4E86-A21A-C06AE8C97E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B250ED-A24E-4ED3-9CC1-58C5E7A1BFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{51AC1DB6-F14D-1E47-81EE-286F67F50D02}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="27">
   <si>
     <t>Df</t>
   </si>
@@ -114,14 +114,18 @@
   <si>
     <t>R2 model</t>
   </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -172,21 +176,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F34717-1F23-694D-8EA6-EFBAFCEAED6E}">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K49"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AI49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -515,7 +516,7 @@
     <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -549,43 +550,175 @@
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
         <v>0.19414999999999999</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>2.7735599999999999E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>9.2088000000000001</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>5.8343E-9</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="7">
         <v>0.20188</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="6">
         <v>0.6492</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="6">
         <v>6.4779999999999998</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="6">
         <v>5.4190000000000002E-11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.19414999999999999</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>2.7735599999999999E-2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>9.2088000000000001</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0.20188</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.6492</v>
+      </c>
+      <c r="V3" s="6">
+        <v>6.4779999999999998</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>0.19414999999999999</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>2.7735599999999999E-2</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>9.2088000000000001</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>0.20188</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>0.6492</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>6.4779999999999998</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -608,9 +741,56 @@
         <v>0.44735000000000003</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4" s="2"/>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.43021999999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.7208600000000001E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5.7135999999999996</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.44735000000000003</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0.43021999999999999</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>1.7208600000000001E-2</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>5.7135999999999996</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0.44735000000000003</v>
+      </c>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -628,53 +808,172 @@
         <v>0.35077000000000003</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K5" s="2"/>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>112</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.33733000000000002</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3.0119000000000001E-3</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3">
+        <v>0.35077000000000003</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="Z5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>112</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0.33733000000000002</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>3.0119000000000001E-3</v>
+      </c>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10">
+        <v>0.35077000000000003</v>
+      </c>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="K6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="5">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
         <v>0.38258999999999999</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>5.4656000000000003E-2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>6.4497</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>2.1809000000000002E-6</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>0.15437999999999999</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="6">
         <v>0.61699999999999999</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="6">
         <v>5.6390000000000002</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="6">
         <v>3.5399999999999999E-12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>7</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.38258999999999999</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>5.4656000000000003E-2</v>
+      </c>
+      <c r="R7" s="6">
+        <v>6.4497</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.15437999999999999</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="V7" s="6">
+        <v>5.6390000000000002</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0.38258999999999999</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>5.4656000000000003E-2</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>6.4497</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0.15437999999999999</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>5.6390000000000002</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -697,9 +996,56 @@
         <v>0.46266000000000002</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K8" s="2"/>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.1466099999999999</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.5864000000000002E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>5.4123000000000001</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.46266000000000002</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="Z8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>1.1466099999999999</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>4.5864000000000002E-2</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>5.4123000000000001</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0.46266000000000002</v>
+      </c>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -717,883 +1063,2437 @@
         <v>0.38296999999999998</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K9" s="2"/>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>112</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.94911000000000001</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>8.4740000000000006E-3</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="3">
+        <v>0.38296999999999998</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="Z9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>112</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0.94911000000000001</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>8.4740000000000006E-3</v>
+      </c>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10">
+        <v>0.38296999999999998</v>
+      </c>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="K10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
         <v>2.3127</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>0.33039000000000002</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>18.701699999999999</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <v>1.4921000000000001E-12</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <v>0.29058</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <v>0.74029999999999996</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="6">
         <v>10.42</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="6">
         <v>2.2E-16</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="5">
+        <v>7</v>
+      </c>
+      <c r="P11" s="8">
+        <v>2.3127</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.33039000000000002</v>
+      </c>
+      <c r="R11" s="8">
+        <v>18.701699999999999</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0.29058</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="V11" s="6">
+        <v>10.42</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>2.3127</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>0.33039000000000002</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>18.701699999999999</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>0.29058</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>10.42</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
         <v>25</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>3.5792999999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>0.14316999999999999</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>8.1043000000000003</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>8.5015999999999992E-12</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>0.44972000000000001</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12" s="2"/>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12" s="4">
+        <v>3.5792999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>0.14316999999999999</v>
+      </c>
+      <c r="R12" s="4">
+        <v>8.1043000000000003</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.44972000000000001</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="Z12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>25</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>3.5792999999999999</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>0.14316999999999999</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>8.1043000000000003</v>
+      </c>
+      <c r="AE12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>0.44972000000000001</v>
+      </c>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
         <v>117</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>2.0669</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>1.7670000000000002E-2</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>0.25969999999999999</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="K13" s="2"/>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>117</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2.0669</v>
+      </c>
+      <c r="Q13">
+        <v>1.7670000000000002E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="Z13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>117</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>2.0669</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>1.7670000000000002E-2</v>
+      </c>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="J14" s="2"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="K14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6">
         <v>1.3810899999999999</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <v>0.197298</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>23.637</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>8.1302000000000001E-20</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="7">
         <v>0.30498999999999998</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>0.78249999999999997</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="6">
         <v>13.27</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="6">
         <v>2.2E-16</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="5">
+        <v>7</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1.3810899999999999</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0.197298</v>
+      </c>
+      <c r="R15" s="6">
+        <v>23.637</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0.30498999999999998</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="V15" s="6">
+        <v>13.27</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>1.3810899999999999</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0.197298</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>23.637</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>0.30498999999999998</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>13.27</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>2.1622499999999998</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>8.6489999999999997E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>10.362</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>1.3299E-15</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>0.47749999999999998</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K16" s="2"/>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2.1622499999999998</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>8.6489999999999997E-2</v>
+      </c>
+      <c r="R16" s="2">
+        <v>10.362</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="Z16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>25</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>2.1622499999999998</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>8.6489999999999997E-2</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>10.362</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
         <v>118</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>0.98497000000000001</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>8.3470000000000003E-3</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <v>0.21751000000000001</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="K17" s="2"/>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>118</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.98497000000000001</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>8.3470000000000003E-3</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.21751000000000001</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="Z17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>118</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>0.98497000000000001</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>8.3470000000000003E-3</v>
+      </c>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10">
+        <v>0.21751000000000001</v>
+      </c>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="J18" s="2"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="K18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="9">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="5">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6">
         <v>0.23874999999999999</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>3.4106999999999998E-2</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <v>21.662500000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="6">
         <v>1.5999000000000001E-14</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="7">
         <v>0.29997000000000001</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="6">
         <v>0.76849999999999996</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="6">
         <v>12.14</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="6">
         <v>2.2E-16</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="5">
+        <v>7</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.23874999999999999</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>3.4106999999999998E-2</v>
+      </c>
+      <c r="R19" s="8">
+        <v>21.662500000000001</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0.29997000000000001</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="V19" s="6">
+        <v>12.14</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0.23874999999999999</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>3.4106999999999998E-2</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>21.662500000000001</v>
+      </c>
+      <c r="AE19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0.29997000000000001</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>12.14</v>
+      </c>
+      <c r="AI19" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>0.37293999999999999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>1.4918000000000001E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>9.4746000000000006</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>4.0416999999999997E-14</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>0.46856999999999999</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="2"/>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.37293999999999999</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1.4918000000000001E-2</v>
+      </c>
+      <c r="R20" s="4">
+        <v>9.4746000000000006</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.46856999999999999</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="Z20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>25</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>0.37293999999999999</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>1.4918000000000001E-2</v>
+      </c>
+      <c r="AD20" s="10">
+        <v>9.4746000000000006</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>0.46856999999999999</v>
+      </c>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21">
         <v>117</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>0.18421000000000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>1.5740000000000001E-3</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>0.23144999999999999</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
+      <c r="K21" s="2"/>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>117</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.18421000000000001</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1.5740000000000001E-3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.23144999999999999</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="Z21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>117</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0.18421000000000001</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>1.5740000000000001E-3</v>
+      </c>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10">
+        <v>0.23144999999999999</v>
+      </c>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="H22" s="3"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="K22" s="2"/>
+      <c r="T22" s="3"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="9">
-        <v>7</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23" s="5">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6">
         <v>1.869E-3</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="6">
         <v>2.6699999999999998E-4</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>5.5575000000000001</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="6">
         <v>1.6405E-5</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="7">
         <v>0.16397</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="5">
         <v>0.52790000000000004</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="6">
         <v>3.9140000000000001</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="6">
         <v>4.5460000000000002E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="5">
+        <v>7</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1.869E-3</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="R23" s="6">
+        <v>5.5575000000000001</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0.16397</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="V23" s="6">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>1.869E-3</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>5.5575000000000001</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>0.16397</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>4.1485000000000003E-3</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="2">
         <v>1.6594E-4</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>3.4540000000000002</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>3.6519999999999999E-6</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>0.36396000000000001</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K24" s="2"/>
+      <c r="N24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+      <c r="P24" s="2">
+        <v>4.1485000000000003E-3</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1.6594E-4</v>
+      </c>
+      <c r="R24" s="2">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.36396000000000001</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="Z24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>25</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>4.1485000000000003E-3</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>1.6594E-4</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="AE24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>0.36396000000000001</v>
+      </c>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25">
         <v>112</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>5.3807999999999998E-3</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="2">
         <v>4.8043000000000001E-5</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7">
+      <c r="G25" s="2"/>
+      <c r="H25" s="3">
         <v>0.47206999999999999</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
+      <c r="K25" s="2"/>
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>112</v>
+      </c>
+      <c r="P25" s="2">
+        <v>5.3807999999999998E-3</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>4.8043000000000001E-5</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="3">
+        <v>0.47206999999999999</v>
+      </c>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="Z25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>112</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>5.3807999999999998E-3</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>4.8043000000000001E-5</v>
+      </c>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10">
+        <v>0.47206999999999999</v>
+      </c>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="H26" s="3"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="K26" s="2"/>
+      <c r="T26" s="3"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="9">
-        <v>7</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="C27" s="5">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6">
         <v>4.9833999999999998E-3</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="6">
         <v>7.1192E-4</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <v>7.9855999999999998</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="6">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="7">
         <v>0.23064999999999999</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="5">
         <v>0.52549999999999997</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="6">
         <v>3.98</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="6">
         <v>2.6129999999999999E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="5">
+        <v>7</v>
+      </c>
+      <c r="P27" s="6">
+        <v>4.9833999999999998E-3</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>7.1192E-4</v>
+      </c>
+      <c r="R27" s="6">
+        <v>7.9855999999999998</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0.23064999999999999</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="V27" s="6">
+        <v>3.98</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>4.9833999999999998E-3</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>7.1192E-4</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>7.9855999999999998</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>0.23064999999999999</v>
+      </c>
+      <c r="AG27" s="9">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="AH27" s="9">
+        <v>3.98</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
         <v>25</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>6.3699000000000004E-3</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>2.5480000000000001E-4</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>2.8580999999999999</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>8.0847999999999996E-5</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="3">
         <v>0.29482999999999998</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K28" s="2"/>
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+      <c r="P28" s="2">
+        <v>6.3699000000000004E-3</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>2.5480000000000001E-4</v>
+      </c>
+      <c r="R28" s="2">
+        <v>2.8580999999999999</v>
+      </c>
+      <c r="S28" s="2">
+        <v>8.0847999999999996E-5</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.29482999999999998</v>
+      </c>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="Z28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>25</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>6.3699000000000004E-3</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>2.5480000000000001E-4</v>
+      </c>
+      <c r="AD28" s="10">
+        <v>2.8580999999999999</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>8.0847999999999996E-5</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>0.29482999999999998</v>
+      </c>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29">
         <v>115</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>1.0252300000000001E-2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>8.9149999999999999E-5</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7">
+      <c r="G29" s="2"/>
+      <c r="H29" s="3">
         <v>0.47452</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="K29" s="2"/>
+      <c r="N29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>115</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1.0252300000000001E-2</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>8.9149999999999999E-5</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="3">
+        <v>0.47452</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="Z29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>115</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>1.0252300000000001E-2</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>8.9149999999999999E-5</v>
+      </c>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10">
+        <v>0.47452</v>
+      </c>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="J30" s="2"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="K30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="9">
-        <v>7</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="C31" s="5">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6">
         <v>2.8413999999999998E-2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="6">
         <v>4.0591999999999998E-3</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>18.991599999999998</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <v>0.38247999999999999</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="5">
         <v>0.70940000000000003</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="6">
         <v>8.8059999999999992</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="6">
         <v>2.2E-16</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="5">
+        <v>7</v>
+      </c>
+      <c r="P31" s="6">
+        <v>2.8413999999999998E-2</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>4.0591999999999998E-3</v>
+      </c>
+      <c r="R31" s="6">
+        <v>18.991599999999998</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0.38247999999999999</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="V31" s="6">
+        <v>8.8059999999999992</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>2.8413999999999998E-2</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>4.0591999999999998E-3</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>18.991599999999998</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>0.38247999999999999</v>
+      </c>
+      <c r="AG31" s="9">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="AH31" s="9">
+        <v>8.8059999999999992</v>
+      </c>
+      <c r="AI31" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>2.4289000000000002E-2</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>1.1566E-3</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>5.4112999999999998</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>2.8133999999999999E-5</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="3">
         <v>0.32694000000000001</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="2"/>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>21</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2.4289000000000002E-2</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.1566E-3</v>
+      </c>
+      <c r="R32" s="2">
+        <v>5.4112999999999998</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.32694000000000001</v>
+      </c>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="Z32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32">
+        <v>21</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>2.4289000000000002E-2</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>1.1566E-3</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>5.4112999999999998</v>
+      </c>
+      <c r="AE32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF32" s="10">
+        <v>0.32694000000000001</v>
+      </c>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33">
         <v>101</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>2.1586999999999999E-2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>2.1369999999999999E-4</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7">
+      <c r="G33" s="2"/>
+      <c r="H33" s="3">
         <v>0.29058</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="K33" s="2"/>
+      <c r="N33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>101</v>
+      </c>
+      <c r="P33" s="2">
+        <v>2.1586999999999999E-2</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>2.1369999999999999E-4</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="3">
+        <v>0.29058</v>
+      </c>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="Z33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>101</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>2.1586999999999999E-2</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>2.1369999999999999E-4</v>
+      </c>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10">
+        <v>0.29058</v>
+      </c>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="J34" s="2"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="K34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="9">
-        <v>7</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="C35" s="5">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6">
         <v>7.578E-2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="6">
         <v>1.08261E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="6">
         <v>3.7770999999999999</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="6">
         <v>1.0009999999999999E-3</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="7">
         <v>9.5860000000000001E-2</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="5">
         <v>0.57940000000000003</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="6">
         <v>4.9939999999999998</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="6">
         <v>7.5349999999999996E-8</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" s="5">
+        <v>7</v>
+      </c>
+      <c r="P35" s="6">
+        <v>7.578E-2</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1.08261E-2</v>
+      </c>
+      <c r="R35" s="6">
+        <v>3.7770999999999999</v>
+      </c>
+      <c r="S35" s="6">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="T35" s="7">
+        <v>9.5860000000000001E-2</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="V35" s="6">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>7.578E-2</v>
+      </c>
+      <c r="AC35" s="9">
+        <v>1.08261E-2</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>3.7770999999999999</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>9.5860000000000001E-2</v>
+      </c>
+      <c r="AG35" s="9">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="AI35" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
         <v>25</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>0.38229000000000002</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>1.5291600000000001E-2</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>5.3350999999999997</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>0</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="3">
         <v>0.48357</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K36" s="2"/>
+      <c r="N36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>25</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.38229000000000002</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1.5291600000000001E-2</v>
+      </c>
+      <c r="R36" s="2">
+        <v>5.3350999999999997</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0.48357</v>
+      </c>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="Z36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA36">
+        <v>25</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>0.38229000000000002</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>1.5291600000000001E-2</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>5.3350999999999997</v>
+      </c>
+      <c r="AE36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF36" s="10">
+        <v>0.48357</v>
+      </c>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37">
         <v>116</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>0.33248</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>2.8662000000000002E-3</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="7">
+      <c r="G37" s="2"/>
+      <c r="H37" s="3">
         <v>0.42057</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="K37" s="2"/>
+      <c r="N37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>116</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.33248</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>2.8662000000000002E-3</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="3">
+        <v>0.42057</v>
+      </c>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="Z37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA37">
+        <v>116</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>0.33248</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>2.8662000000000002E-3</v>
+      </c>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10">
+        <v>0.42057</v>
+      </c>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="J38" s="2"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+      <c r="K38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="9">
-        <v>7</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="C39" s="5">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6">
         <v>2.4187E-2</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="6">
         <v>3.4551999999999999E-3</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <v>5.3140000000000001</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="6">
         <v>2.72E-5</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="7">
         <v>0.18060999999999999</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="5">
         <v>0.43680000000000002</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="6">
         <v>2.8109999999999999</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="6">
         <v>2.9600000000000001E-5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="5">
+        <v>7</v>
+      </c>
+      <c r="P39" s="6">
+        <v>2.4187E-2</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>3.4551999999999999E-3</v>
+      </c>
+      <c r="R39" s="6">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0.18060999999999999</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="V39" s="6">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>2.4187E-2</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>3.4551999999999999E-3</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="AE39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>0.18060999999999999</v>
+      </c>
+      <c r="AG39" s="9">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="AI39" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
         <v>25</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>3.4303E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>1.3721E-3</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="2">
         <v>2.1101999999999999</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="2">
         <v>4.1809000000000004E-3</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="3">
         <v>0.25614999999999999</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K40" s="2"/>
+      <c r="N40" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>25</v>
+      </c>
+      <c r="P40" s="2">
+        <v>3.4303E-2</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1.3721E-3</v>
+      </c>
+      <c r="R40" s="2">
+        <v>2.1101999999999999</v>
+      </c>
+      <c r="S40" s="2">
+        <v>4.1809000000000004E-3</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0.25614999999999999</v>
+      </c>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="Z40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>25</v>
+      </c>
+      <c r="AB40" s="10">
+        <v>3.4303E-2</v>
+      </c>
+      <c r="AC40" s="10">
+        <v>1.3721E-3</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>2.1101999999999999</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>4.1809000000000004E-3</v>
+      </c>
+      <c r="AF40" s="10">
+        <v>0.25614999999999999</v>
+      </c>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41">
         <v>116</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>7.5424000000000005E-2</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>6.5019999999999998E-4</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7">
+      <c r="G41" s="2"/>
+      <c r="H41" s="3">
         <v>0.56323000000000001</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="K41" s="2"/>
+      <c r="N41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <v>116</v>
+      </c>
+      <c r="P41" s="2">
+        <v>7.5424000000000005E-2</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>6.5019999999999998E-4</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="3">
+        <v>0.56323000000000001</v>
+      </c>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="Z41" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41">
+        <v>116</v>
+      </c>
+      <c r="AB41" s="10">
+        <v>7.5424000000000005E-2</v>
+      </c>
+      <c r="AC41" s="10">
+        <v>6.5019999999999998E-4</v>
+      </c>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10">
+        <v>0.56323000000000001</v>
+      </c>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="J42" s="2"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="K42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="9">
-        <v>7</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="C43" s="5">
+        <v>7</v>
+      </c>
+      <c r="D43" s="6">
         <v>6.9474999999999995E-2</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="6">
         <v>9.9249999999999998E-3</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="6">
         <v>14.2721</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="6">
         <v>2.6620000000000001E-9</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="7">
         <v>0.27611999999999998</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="5">
         <v>0.67659999999999998</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="6">
         <v>7.65</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="6">
         <v>2.2E-16</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="5">
+        <v>7</v>
+      </c>
+      <c r="P43" s="6">
+        <v>6.9474999999999995E-2</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>9.9249999999999998E-3</v>
+      </c>
+      <c r="R43" s="6">
+        <v>14.2721</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0.27611999999999998</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="V43" s="6">
+        <v>7.65</v>
+      </c>
+      <c r="W43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="9">
+        <v>6.9474999999999995E-2</v>
+      </c>
+      <c r="AC43" s="9">
+        <v>9.9249999999999998E-3</v>
+      </c>
+      <c r="AD43" s="9">
+        <v>14.2721</v>
+      </c>
+      <c r="AE43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF43" s="9">
+        <v>0.27611999999999998</v>
+      </c>
+      <c r="AG43" s="9">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="AH43" s="9">
+        <v>7.65</v>
+      </c>
+      <c r="AI43" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
         <v>25</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>0.100772</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>4.0308999999999996E-3</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>5.7964000000000002</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="2">
         <v>2.1362999999999999E-7</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="3">
         <v>0.40050999999999998</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K44" s="2"/>
+      <c r="N44" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>25</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.100772</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>4.0308999999999996E-3</v>
+      </c>
+      <c r="R44" s="2">
+        <v>5.7964000000000002</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0.40050999999999998</v>
+      </c>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="Z44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA44">
+        <v>25</v>
+      </c>
+      <c r="AB44" s="10">
+        <v>0.100772</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>4.0308999999999996E-3</v>
+      </c>
+      <c r="AD44" s="10">
+        <v>5.7964000000000002</v>
+      </c>
+      <c r="AE44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF44" s="10">
+        <v>0.40050999999999998</v>
+      </c>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45">
         <v>117</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>8.1363000000000005E-2</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>6.9539999999999999E-4</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="7">
+      <c r="G45" s="2"/>
+      <c r="H45" s="3">
         <v>0.32336999999999999</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="K45" s="2"/>
+      <c r="N45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>117</v>
+      </c>
+      <c r="P45" s="2">
+        <v>8.1363000000000005E-2</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>6.9539999999999999E-4</v>
+      </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="3">
+        <v>0.32336999999999999</v>
+      </c>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="Z45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45">
+        <v>117</v>
+      </c>
+      <c r="AB45" s="10">
+        <v>8.1363000000000005E-2</v>
+      </c>
+      <c r="AC45" s="10">
+        <v>6.9539999999999999E-4</v>
+      </c>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10">
+        <v>0.32336999999999999</v>
+      </c>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="J46" s="2"/>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
+      <c r="K46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="9">
-        <v>7</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="C47" s="5">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6">
         <v>661.03</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <v>94.433000000000007</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="6">
         <v>7.6893000000000002</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="6">
         <v>1.3899999999999999E-7</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="7">
         <v>0.22719</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="5">
         <v>0.52300000000000002</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="6">
         <v>3.8730000000000002</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="6">
         <v>5.482E-5</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" s="5">
+        <v>7</v>
+      </c>
+      <c r="P47" s="6">
+        <v>661.03</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>94.433000000000007</v>
+      </c>
+      <c r="R47" s="6">
+        <v>7.6893000000000002</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47" s="7">
+        <v>0.22719</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="V47" s="6">
+        <v>3.8730000000000002</v>
+      </c>
+      <c r="W47" s="6">
+        <v>5.482E-5</v>
+      </c>
+      <c r="Y47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>661.03</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>94.433000000000007</v>
+      </c>
+      <c r="AD47" s="9">
+        <v>7.6893000000000002</v>
+      </c>
+      <c r="AE47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF47" s="9">
+        <v>0.22719</v>
+      </c>
+      <c r="AG47" s="9">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AH47" s="9">
+        <v>3.8730000000000002</v>
+      </c>
+      <c r="AI47" s="9">
+        <v>5.482E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
         <v>25</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>860.86</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>34.433999999999997</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <v>2.8037999999999998</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="2">
         <v>1.1271E-4</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="3">
         <v>0.29586000000000001</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K48" s="2"/>
+      <c r="N48" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>25</v>
+      </c>
+      <c r="P48" s="2">
+        <v>860.86</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>34.433999999999997</v>
+      </c>
+      <c r="R48" s="2">
+        <v>2.8037999999999998</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1.1271E-4</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0.29586000000000001</v>
+      </c>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="Z48" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA48">
+        <v>25</v>
+      </c>
+      <c r="AB48" s="10">
+        <v>860.86</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>34.433999999999997</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>2.8037999999999998</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>1.1271E-4</v>
+      </c>
+      <c r="AF48" s="10">
+        <v>0.29586000000000001</v>
+      </c>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1610,11 +3510,46 @@
       <c r="H49" s="3">
         <v>0.47694999999999999</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="N49" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>113</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1387.78</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>12.281000000000001</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="3">
+        <v>0.47694999999999999</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA49">
+        <v>113</v>
+      </c>
+      <c r="AB49" s="10">
+        <v>1387.78</v>
+      </c>
+      <c r="AC49" s="10">
+        <v>12.281000000000001</v>
+      </c>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10">
+        <v>0.47694999999999999</v>
+      </c>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>